--- a/Documentation/Documents/SQL Generator/Data Initial/Master - Currency.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/Master - Currency.xlsx
@@ -1659,15 +1659,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B105" workbookViewId="0">
-      <selection activeCell="O108" sqref="O108"/>
+    <sheetView tabSelected="1" topLeftCell="B97" workbookViewId="0">
+      <selection activeCell="K104" sqref="K104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3933,7 +3933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I122"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
+    <sheetView topLeftCell="A112" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
